--- a/api_document.xlsx
+++ b/api_document.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>API</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>userid=1</t>
+  </si>
+  <si>
+    <t>update_photo</t>
+  </si>
+  <si>
+    <t>/api/auth/user-update-photo</t>
+  </si>
+  <si>
+    <t>{
+ "userid":"1",
+ "image":"BASE64 Encoding String"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "Update User Photo Success"
+}</t>
   </si>
 </sst>
 </file>
@@ -495,7 +516,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,21 +660,35 @@
       <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>

--- a/api_document.xlsx
+++ b/api_document.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\2021_04_09\librarySys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\2021_04_09\work\librarysys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="USER" sheetId="1" r:id="rId1"/>
+    <sheet name="AUTHORITY" sheetId="3" r:id="rId2"/>
+    <sheet name="QA" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>API</t>
   </si>
@@ -157,12 +159,204 @@
     "msg": "Update User Photo Success"
 }</t>
   </si>
+  <si>
+    <t>user-update</t>
+  </si>
+  <si>
+    <t>/api/user/user-update</t>
+  </si>
+  <si>
+    <t>{
+ "id":1,
+ "name":"falcon choe15",
+ "username":"falcon15",
+ "password":"falcon",
+ "phone":"+86-15243336598",
+ "authorid":0,
+ "remarks": "this is test user",
+ "is_use":"true"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "User updated successfully!"
+}</t>
+  </si>
+  <si>
+    <t>실패하는 경우 
+code: 500코드와 오유메세지를 돌린다.</t>
+  </si>
+  <si>
+    <t>user-delete</t>
+  </si>
+  <si>
+    <t>/api/user/user-delete</t>
+  </si>
+  <si>
+    <t>{
+ "id":1,
+ }</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "User deleted successfully!"
+}</t>
+  </si>
+  <si>
+    <t>get_userlist</t>
+  </si>
+  <si>
+    <t>/api/user/user-list</t>
+  </si>
+  <si>
+    <t>{
+ "key":"falcon",
+ "offset":"3",
+ "pagesize":6
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "Update User Content Success",
+    "data": [
+        {
+            "id": 10,
+         ...
+            "is_deleted": 0,
+            "createdAt": "2021-04-10T00:52:18.000Z",
+            "updatedAt": "2021-04-10T00:52:18.000Z"
+        },</t>
+  </si>
+  <si>
+    <t>get_adminlist</t>
+  </si>
+  <si>
+    <t>/api/user/admin-list</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>멤버관리에서 [Authorization]을 누르면 어떤 동작을 하여야 하는가?</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>/api/authorities/create</t>
+  </si>
+  <si>
+    <t>/api/authorities/update</t>
+  </si>
+  <si>
+    <t>/api/authorities/delete</t>
+  </si>
+  <si>
+    <t>/api/authorities/list</t>
+  </si>
+  <si>
+    <t>{
+ "name":"falcon choe15",
+    "remarks": "this is for test",
+ "bs_LM_power":"001",
+ "bs_AM_power":"001",
+    "bs_MM_power":"001",
+    "eq_WT_power":"001",
+    "eq_PP_power":"001",
+    "eq_CAM_power":"001",
+ "is_use":"true"
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "id":1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "name":"falcon choe1dsdsa",
+    "remarks": "this is for test",
+ "bs_LM_power":"001",
+ "bs_AM_power":"001",
+    "bs_MM_power":"001",
+    "bs_WT_power":"001",
+    "bs_PP_power":"001",
+    "bs_PP_power":"001",
+ "is_use":"true"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+ "id":1
+}</t>
+  </si>
+  <si>
+    <t>{
+ "key":"falcon",
+ "offset":0,
+    "pagesize": 10
+}</t>
+  </si>
+  <si>
+    <t>Require Token</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>x-access-token='token string'</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +372,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,16 +434,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,24 +731,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="33.875" customWidth="1"/>
-    <col min="7" max="8" width="27.125" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -547,214 +767,320 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8080/api/auth/signup"/>
@@ -762,4 +1088,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://127.0.0.1:8080/api/auth/signup"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" style="6" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44299</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>